--- a/obieg.xlsx
+++ b/obieg.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Table 1</t>
   </si>
@@ -139,34 +139,34 @@
     <t>Puszki</t>
   </si>
   <si>
-    <t>Ślad węglowy łączny</t>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kg </t>
   </si>
   <si>
     <t>Ślad węglowy</t>
   </si>
   <si>
-    <t>odległość</t>
-  </si>
-  <si>
-    <t>CO2/km</t>
-  </si>
-  <si>
-    <t>CO2kg</t>
-  </si>
-  <si>
-    <t>1 wyjazd</t>
-  </si>
-  <si>
-    <t>Gdy-Gda SKM</t>
-  </si>
-  <si>
-    <t>21km</t>
-  </si>
-  <si>
-    <t>40g/km</t>
-  </si>
-  <si>
-    <t>Kg</t>
+    <t>odległość (km)</t>
+  </si>
+  <si>
+    <t>Emisja CO2 (g/km)</t>
+  </si>
+  <si>
+    <t>CO2 (kg)</t>
+  </si>
+  <si>
+    <t>Gdynia-Gdansk SKM</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <r>
@@ -191,13 +191,13 @@
     </r>
   </si>
   <si>
-    <t>Gda-Wisła Bus</t>
-  </si>
-  <si>
-    <t>22km</t>
-  </si>
-  <si>
-    <t>90g/km</t>
+    <t>Gdansk-Wisła Bus</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <r>
@@ -211,16 +211,22 @@
     </r>
   </si>
   <si>
+    <t>Obie strony</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
     <t>2 wyjazd</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>43km</t>
-  </si>
-  <si>
-    <t>265g/km</t>
+    <t>Samochod Gdynia-Gdansk</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>265</t>
   </si>
   <si>
     <r>
@@ -243,6 +249,9 @@
       </rPr>
       <t>https://www.carbuyer.co.uk/volvo/xc90/mpg</t>
     </r>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
   <si>
     <t>Over a year, a mature tree can take up approximately 22kg of CO2 from the atmosphere. EEA, 2016.</t>
@@ -267,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -277,6 +286,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -298,7 +312,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +333,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -336,6 +374,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -343,19 +403,19 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -364,7 +424,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -373,7 +433,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -382,43 +442,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,13 +487,208 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,77 +698,146 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,11 +857,17 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffd5d5d5"/>
+      <rgbColor rgb="ff4dac2b"/>
+      <rgbColor rgb="ffa7a7a7"/>
+      <rgbColor rgb="ffcc503e"/>
+      <rgbColor rgb="ffffec98"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -554,10 +884,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -734,11 +1064,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -747,7 +1080,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -761,19 +1094,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1012,12 +1345,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1298,7 +1631,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1566,11 +1899,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H64"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1582,1042 +1913,1078 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>22</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <f>B4*D4</f>
         <v>1551</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <f>(29+34+23+55)/2</f>
         <v>70.5</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="15">
         <f>B5*D5</f>
         <v>408</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <f>29+22</f>
         <v>51</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <f>B6*D6</f>
         <v>168</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>28</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>20</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <f>B7*D7</f>
         <v>560</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <f>B8*D8</f>
         <v>150</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="15">
         <v>50</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <f>B9*D9</f>
         <v>648</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <f>24+84</f>
         <v>108</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <f>B10*D10</f>
         <v>70</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="15">
         <v>35</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>2</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <f>B11*D11</f>
         <v>80</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="15">
         <v>40</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <f>B12*D12</f>
         <v>24</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <v>8</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <f>B13*D13</f>
         <v>105</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="15">
         <f>(20+50)/2</f>
         <v>35</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="A14" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>5</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <f>B14*D14</f>
         <v>40</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <v>8</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>20</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="15">
         <f>B15*D15</f>
         <v>200</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="15">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="A16" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>9</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <f>B16*D16</f>
         <v>135</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="15">
         <v>15</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <f>B17*D17</f>
         <v>16</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <v>8</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="15">
         <f>B18*D18</f>
         <v>12</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="15">
         <v>12</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="A19" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <v>3</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="15">
         <f>B19*D19</f>
         <v>402</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="15">
         <v>134</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="A20" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="15">
         <f>B20*D20</f>
         <v>400</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15">
         <v>400</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="32.05" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="A21" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="15">
         <f>B21*D21</f>
         <v>600</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="15">
         <v>100</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="14">
         <v>36</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="15">
         <f>B22*D22</f>
         <v>360</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="15">
         <v>10</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="A23" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="14">
         <v>4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="15">
         <f>B23*D23</f>
         <v>1200</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="15">
         <v>300</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15">
         <f>SUM(C4:C23)</f>
         <v>7129</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="56.05" customHeight="1">
-      <c r="A26" t="s" s="17">
+      <c r="A26" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="20">
         <v>1</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="21">
         <v>2310</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="A28" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="A29" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="14">
         <v>2</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="17">
+      <c r="A31" t="s" s="19">
         <v>29</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="11">
+      <c r="A32" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="14">
         <v>13</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <f>B32*D32</f>
         <v>1508</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="15">
         <v>116</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="11">
+      <c r="A33" t="s" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="14">
         <v>8</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="15">
         <f>B33*D33</f>
         <v>1480</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="15">
         <v>185</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="11">
+      <c r="A34" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="14">
         <v>1</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="15">
         <f>B34*D34</f>
         <v>440</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="15">
         <v>440</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="11">
+      <c r="A35" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="14">
         <v>1</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="15">
         <v>480</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="15">
         <v>480</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="A36" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="14">
         <v>1</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="15">
         <v>584</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="15">
         <v>584</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="11">
+      <c r="A37" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="14">
         <v>1</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="15">
         <v>584</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="15">
         <v>350</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" ht="32.05" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="A38" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>1</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <v>584</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="15">
         <v>300</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="11">
+      <c r="A39" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="14">
         <v>6</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="15">
         <v>584</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="15">
         <v>314</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="11">
+      <c r="A40" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="14">
         <v>1</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="15">
         <v>300</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="15">
         <v>280</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="11">
+      <c r="A41" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="14">
         <v>3</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="15">
         <v>300</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="15">
         <v>200</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="13">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="15">
         <f>SUM(C32:C41)</f>
         <v>6844</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="17">
+      <c r="A43" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="11">
+      <c r="A44" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="14">
         <v>13</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="15">
         <f>B44*D44</f>
         <v>195</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="15">
         <v>15</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="13">
-        <f>C44+C24+C42+C26</f>
-        <v>16478</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" ht="32.05" customHeight="1">
-      <c r="A47" t="s" s="11">
+      <c r="A46" t="s" s="24">
         <v>42</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="13">
-        <f>(D54+D57)*1000</f>
-        <v>28430</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="B46" t="s" s="25">
+        <v>43</v>
+      </c>
+      <c r="C46" s="26">
+        <f>(C44+C24+C42+C26)*0.001</f>
+        <v>16.478</v>
+      </c>
+      <c r="D46" t="s" s="27">
+        <v>44</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" ht="32.05" customHeight="1">
+      <c r="A48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s" s="22">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s" s="23">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" t="s" s="28">
         <v>45</v>
       </c>
-      <c r="D50" t="s" s="23">
+      <c r="B51" t="s" s="29">
         <v>46</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="11">
+      <c r="C51" t="s" s="30">
         <v>47</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" ht="116.05" customHeight="1">
-      <c r="A52" t="s" s="11">
+      <c r="D51" t="s" s="30">
         <v>48</v>
       </c>
-      <c r="B52" t="s" s="22">
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="13"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" ht="116.05" customHeight="1">
+      <c r="A53" t="s" s="34">
         <v>49</v>
       </c>
-      <c r="C52" t="s" s="23">
+      <c r="B53" t="s" s="35">
         <v>50</v>
       </c>
-      <c r="D52" s="13">
-        <f>21*0.04</f>
+      <c r="C53" t="s" s="36">
+        <v>51</v>
+      </c>
+      <c r="D53" s="37">
+        <f>0.001*B53*C53</f>
         <v>0.84</v>
       </c>
-      <c r="E52" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="F52" t="s" s="23">
+      <c r="E53" s="38"/>
+      <c r="F53" t="s" s="38">
         <v>52</v>
       </c>
-      <c r="G52" t="s" s="23">
+      <c r="G53" t="s" s="38">
         <v>53</v>
       </c>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" ht="44.05" customHeight="1">
-      <c r="A53" t="s" s="11">
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" ht="44.05" customHeight="1">
+      <c r="A54" t="s" s="34">
         <v>54</v>
       </c>
-      <c r="B53" t="s" s="22">
+      <c r="B54" t="s" s="39">
         <v>55</v>
       </c>
-      <c r="C53" t="s" s="23">
+      <c r="C54" t="s" s="40">
         <v>56</v>
       </c>
-      <c r="D53" s="13">
-        <f>22*0.09</f>
+      <c r="D54" s="37">
+        <f>0.001*B54*C54</f>
         <v>1.98</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" t="s" s="23">
+      <c r="E54" s="16"/>
+      <c r="F54" t="s" s="38">
         <v>57</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13">
-        <f>2*SUM(D52:D53)</f>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="41"/>
+      <c r="C55" t="s" s="42">
+        <v>58</v>
+      </c>
+      <c r="D55" s="15">
+        <f>2*SUM(D53:D54)</f>
         <v>5.64</v>
       </c>
-      <c r="E54" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="11">
+      <c r="E55" t="s" s="38">
+        <v>59</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" ht="68.05" customHeight="1">
+      <c r="A58" t="s" s="34">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s" s="44">
+        <v>63</v>
+      </c>
+      <c r="D58" s="37">
+        <f>B58*C58*0.001</f>
+        <v>11.395</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" ht="20.05" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="41"/>
+      <c r="C59" t="s" s="42">
         <v>58</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" ht="68.05" customHeight="1">
-      <c r="A56" t="s" s="11">
+      <c r="D59" s="15">
+        <f>2*D58</f>
+        <v>22.79</v>
+      </c>
+      <c r="E59" t="s" s="38">
         <v>59</v>
       </c>
-      <c r="B56" t="s" s="22">
-        <v>60</v>
-      </c>
-      <c r="C56" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="D56" s="13">
-        <f>43*0.265</f>
-        <v>11.395</v>
-      </c>
-      <c r="E56" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="F56" t="s" s="23">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13">
-        <f>2*D56</f>
-        <v>22.79</v>
-      </c>
-      <c r="E57" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" ht="92.05" customHeight="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" t="s" s="23">
-        <v>64</v>
-      </c>
-      <c r="F59" t="s" s="23">
-        <v>65</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" t="s" s="27">
+        <v>42</v>
+      </c>
+      <c r="D61" s="26">
+        <f>D59+D55</f>
+        <v>28.43</v>
+      </c>
+      <c r="E61" t="s" s="27">
+        <v>66</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" ht="92.05" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="16"/>
+      <c r="D62" t="s" s="38">
+        <v>67</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" t="s" s="38">
+        <v>68</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" ht="20.05" customHeight="1">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" ht="20.05" customHeight="1">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F52" r:id="rId1" location="" tooltip="" display="https://www.climate-chance.org/wp-content/uploads/2019/03/new-greenhouse-gas-emissions-a-decisive-asset-for-rail.pdf"/>
-    <hyperlink ref="G52" r:id="rId2" location="" tooltip="" display="https://uic.org/IMG/pdf/carbon_footprint_of_railway_infrastructure.pdf"/>
-    <hyperlink ref="F53" r:id="rId3" location="" tooltip="" display="https://www.carbonindependent.org/20.html"/>
-    <hyperlink ref="F56" r:id="rId4" location="" tooltip="" display="https://calculator.carbonfootprint.com/calculator.aspx?lang=pl&amp;tab=4"/>
-    <hyperlink ref="G56" r:id="rId5" location="" tooltip="" display="https://www.carbuyer.co.uk/volvo/xc90/mpg"/>
-    <hyperlink ref="F59" r:id="rId6" location="" tooltip="" display="https://twosides.info/UK/paper-fact-20-a-mature-tree-can-take-up-22kg-of-co2-from-the-atmosphere/"/>
+    <hyperlink ref="F53" r:id="rId1" location="" tooltip="" display="https://www.climate-chance.org/wp-content/uploads/2019/03/new-greenhouse-gas-emissions-a-decisive-asset-for-rail.pdf"/>
+    <hyperlink ref="G53" r:id="rId2" location="" tooltip="" display="https://uic.org/IMG/pdf/carbon_footprint_of_railway_infrastructure.pdf"/>
+    <hyperlink ref="F54" r:id="rId3" location="" tooltip="" display="https://www.carbonindependent.org/20.html"/>
+    <hyperlink ref="F58" r:id="rId4" location="" tooltip="" display="https://calculator.carbonfootprint.com/calculator.aspx?lang=pl&amp;tab=4"/>
+    <hyperlink ref="G58" r:id="rId5" location="" tooltip="" display="https://www.carbuyer.co.uk/volvo/xc90/mpg"/>
+    <hyperlink ref="F62" r:id="rId6" location="" tooltip="" display="https://twosides.info/UK/paper-fact-20-a-mature-tree-can-take-up-22kg-of-co2-from-the-atmosphere/"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
